--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.32117582936994</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H2">
-        <v>4.32117582936994</v>
+        <v>0.075182</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.005556484732231195</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.005556484732231196</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.323444981724412</v>
+        <v>1.572473333333333</v>
       </c>
       <c r="N2">
-        <v>0.323444981724412</v>
+        <v>4.71742</v>
       </c>
       <c r="O2">
-        <v>0.01387689534493216</v>
+        <v>0.0623955221013184</v>
       </c>
       <c r="P2">
-        <v>0.01387689534493216</v>
+        <v>0.06239552210131842</v>
       </c>
       <c r="Q2">
-        <v>1.397662637158531</v>
+        <v>0.03940723004888888</v>
       </c>
       <c r="R2">
-        <v>1.397662637158531</v>
+        <v>0.35466507044</v>
       </c>
       <c r="S2">
-        <v>0.01387689534493216</v>
+        <v>0.0003466997659155698</v>
       </c>
       <c r="T2">
-        <v>0.01387689534493216</v>
+        <v>0.00034669976591557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.32117582936994</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H3">
-        <v>4.32117582936994</v>
+        <v>0.075182</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.005556484732231195</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.005556484732231196</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.4307787232877</v>
+        <v>16.615168</v>
       </c>
       <c r="N3">
-        <v>16.4307787232877</v>
+        <v>49.84550400000001</v>
       </c>
       <c r="O3">
-        <v>0.7049365724062264</v>
+        <v>0.6592875441413644</v>
       </c>
       <c r="P3">
-        <v>0.7049365724062264</v>
+        <v>0.6592875441413647</v>
       </c>
       <c r="Q3">
-        <v>71.00028387679669</v>
+        <v>0.4163871868586667</v>
       </c>
       <c r="R3">
-        <v>71.00028387679669</v>
+        <v>3.747484681728</v>
       </c>
       <c r="S3">
-        <v>0.7049365724062264</v>
+        <v>0.003663321173171692</v>
       </c>
       <c r="T3">
-        <v>0.7049365724062264</v>
+        <v>0.003663321173171694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.32117582936994</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H4">
-        <v>4.32117582936994</v>
+        <v>0.075182</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.005556484732231195</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.005556484732231196</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.19278443475876</v>
+        <v>1.354957666666667</v>
       </c>
       <c r="N4">
-        <v>1.19278443475876</v>
+        <v>4.064873</v>
       </c>
       <c r="O4">
-        <v>0.05117452953502449</v>
+        <v>0.05376453084748706</v>
       </c>
       <c r="P4">
-        <v>0.05117452953502449</v>
+        <v>0.05376453084748708</v>
       </c>
       <c r="Q4">
-        <v>5.15423126912824</v>
+        <v>0.03395614243177777</v>
       </c>
       <c r="R4">
-        <v>5.15423126912824</v>
+        <v>0.3056052818859999</v>
       </c>
       <c r="S4">
-        <v>0.05117452953502449</v>
+        <v>0.000298741794789635</v>
       </c>
       <c r="T4">
-        <v>0.05117452953502449</v>
+        <v>0.0002987417947896351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.32117582936994</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H5">
-        <v>4.32117582936994</v>
+        <v>0.075182</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.005556484732231195</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.005556484732231196</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.76241748832605</v>
+        <v>1.87712</v>
       </c>
       <c r="N5">
-        <v>1.76241748832605</v>
+        <v>5.63136</v>
       </c>
       <c r="O5">
-        <v>0.07561373470439878</v>
+        <v>0.07448385925791649</v>
       </c>
       <c r="P5">
-        <v>0.07561373470439878</v>
+        <v>0.07448385925791652</v>
       </c>
       <c r="Q5">
-        <v>7.615715851813405</v>
+        <v>0.04704187861333333</v>
       </c>
       <c r="R5">
-        <v>7.615715851813405</v>
+        <v>0.42337690752</v>
       </c>
       <c r="S5">
-        <v>0.07561373470439878</v>
+        <v>0.0004138684267642702</v>
       </c>
       <c r="T5">
-        <v>0.07561373470439878</v>
+        <v>0.0004138684267642704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>4.32117582936994</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H6">
-        <v>4.32117582936994</v>
+        <v>0.075182</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.005556484732231195</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.005556484732231196</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.23047503884024</v>
+        <v>2.367415333333334</v>
       </c>
       <c r="N6">
-        <v>2.23047503884024</v>
+        <v>7.102246000000001</v>
       </c>
       <c r="O6">
-        <v>0.09569500357820333</v>
+        <v>0.09393870956200642</v>
       </c>
       <c r="P6">
-        <v>0.09569500357820333</v>
+        <v>0.09393870956200645</v>
       </c>
       <c r="Q6">
-        <v>9.638274825849424</v>
+        <v>0.05932900653022222</v>
       </c>
       <c r="R6">
-        <v>9.638274825849424</v>
+        <v>0.5339610587720001</v>
       </c>
       <c r="S6">
-        <v>0.09569500357820333</v>
+        <v>0.0005219690054467893</v>
       </c>
       <c r="T6">
-        <v>0.09569500357820333</v>
+        <v>0.0005219690054467896</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>4.32117582936994</v>
+        <v>0.02506066666666667</v>
       </c>
       <c r="H7">
-        <v>4.32117582936994</v>
+        <v>0.075182</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.005556484732231195</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.005556484732231196</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.36826543828132</v>
+        <v>1.414567333333333</v>
       </c>
       <c r="N7">
-        <v>1.36826543828132</v>
+        <v>4.243702</v>
       </c>
       <c r="O7">
-        <v>0.05870326443121487</v>
+        <v>0.05612983408990701</v>
       </c>
       <c r="P7">
-        <v>0.05870326443121487</v>
+        <v>0.05612983408990703</v>
       </c>
       <c r="Q7">
-        <v>5.912515540063508</v>
+        <v>0.03545000041822222</v>
       </c>
       <c r="R7">
-        <v>5.912515540063508</v>
+        <v>0.319050003764</v>
       </c>
       <c r="S7">
-        <v>0.05870326443121487</v>
+        <v>0.0003118845661432384</v>
       </c>
       <c r="T7">
-        <v>0.05870326443121487</v>
+        <v>0.0003118845661432385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.485105</v>
+      </c>
+      <c r="H8">
+        <v>13.455315</v>
+      </c>
+      <c r="I8">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="J8">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.572473333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.71742</v>
+      </c>
+      <c r="O8">
+        <v>0.0623955221013184</v>
+      </c>
+      <c r="P8">
+        <v>0.06239552210131842</v>
+      </c>
+      <c r="Q8">
+        <v>7.052708009699999</v>
+      </c>
+      <c r="R8">
+        <v>63.47437208729999</v>
+      </c>
+      <c r="S8">
+        <v>0.06204882233540283</v>
+      </c>
+      <c r="T8">
+        <v>0.06204882233540285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.485105</v>
+      </c>
+      <c r="H9">
+        <v>13.455315</v>
+      </c>
+      <c r="I9">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="J9">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.615168</v>
+      </c>
+      <c r="N9">
+        <v>49.84550400000001</v>
+      </c>
+      <c r="O9">
+        <v>0.6592875441413644</v>
+      </c>
+      <c r="P9">
+        <v>0.6592875441413647</v>
+      </c>
+      <c r="Q9">
+        <v>74.52077307264</v>
+      </c>
+      <c r="R9">
+        <v>670.68695765376</v>
+      </c>
+      <c r="S9">
+        <v>0.6556242229681927</v>
+      </c>
+      <c r="T9">
+        <v>0.655624222968193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.485105</v>
+      </c>
+      <c r="H10">
+        <v>13.455315</v>
+      </c>
+      <c r="I10">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="J10">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.354957666666667</v>
+      </c>
+      <c r="N10">
+        <v>4.064873</v>
+      </c>
+      <c r="O10">
+        <v>0.05376453084748706</v>
+      </c>
+      <c r="P10">
+        <v>0.05376453084748708</v>
+      </c>
+      <c r="Q10">
+        <v>6.077127405554999</v>
+      </c>
+      <c r="R10">
+        <v>54.69414664999499</v>
+      </c>
+      <c r="S10">
+        <v>0.05346578905269743</v>
+      </c>
+      <c r="T10">
+        <v>0.05346578905269744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.485105</v>
+      </c>
+      <c r="H11">
+        <v>13.455315</v>
+      </c>
+      <c r="I11">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="J11">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.87712</v>
+      </c>
+      <c r="N11">
+        <v>5.63136</v>
+      </c>
+      <c r="O11">
+        <v>0.07448385925791649</v>
+      </c>
+      <c r="P11">
+        <v>0.07448385925791652</v>
+      </c>
+      <c r="Q11">
+        <v>8.419080297599999</v>
+      </c>
+      <c r="R11">
+        <v>75.7717226784</v>
+      </c>
+      <c r="S11">
+        <v>0.07406999083115223</v>
+      </c>
+      <c r="T11">
+        <v>0.07406999083115226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.485105</v>
+      </c>
+      <c r="H12">
+        <v>13.455315</v>
+      </c>
+      <c r="I12">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="J12">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.367415333333334</v>
+      </c>
+      <c r="N12">
+        <v>7.102246000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.09393870956200642</v>
+      </c>
+      <c r="P12">
+        <v>0.09393870956200645</v>
+      </c>
+      <c r="Q12">
+        <v>10.61810634861</v>
+      </c>
+      <c r="R12">
+        <v>95.56295713749</v>
+      </c>
+      <c r="S12">
+        <v>0.09341674055655964</v>
+      </c>
+      <c r="T12">
+        <v>0.09341674055655967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.485105</v>
+      </c>
+      <c r="H13">
+        <v>13.455315</v>
+      </c>
+      <c r="I13">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="J13">
+        <v>0.9944435152677689</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.414567333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.243702</v>
+      </c>
+      <c r="O13">
+        <v>0.05612983408990701</v>
+      </c>
+      <c r="P13">
+        <v>0.05612983408990703</v>
+      </c>
+      <c r="Q13">
+        <v>6.344483019569999</v>
+      </c>
+      <c r="R13">
+        <v>57.10034717612999</v>
+      </c>
+      <c r="S13">
+        <v>0.05581794952376377</v>
+      </c>
+      <c r="T13">
+        <v>0.05581794952376379</v>
       </c>
     </row>
   </sheetData>
